--- a/server/templates/form_mau.xlsx
+++ b/server/templates/form_mau.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D634BA-94B1-436D-83EC-9F7407EA9954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA362974-C99A-4A36-BDC0-819DDF7F983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,19 +407,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,7 +789,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,20 +1030,20 @@
       <c r="I10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="44" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="45"/>
       <c r="L10" s="45"/>
       <c r="M10" s="45"/>
       <c r="N10" s="45"/>
-      <c r="O10" s="47" t="s">
+      <c r="O10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="47" t="s">
+      <c r="P10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="47" t="s">
+      <c r="Q10" s="44" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1185,20 +1185,20 @@
       <c r="A17" s="22">
         <v>6</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="22"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
     </row>
@@ -1206,20 +1206,20 @@
       <c r="A18" s="22">
         <v>7</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="22"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
     </row>
@@ -1232,15 +1232,15 @@
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
     </row>
@@ -1253,15 +1253,15 @@
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
     </row>
@@ -1274,15 +1274,15 @@
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
     </row>
@@ -1350,12 +1350,12 @@
       <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:17" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -1501,6 +1501,11 @@
   </sheetData>
   <autoFilter ref="A10:Q22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="20">
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:O21"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Q10:Q11"/>
@@ -1516,11 +1521,6 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/server/templates/form_mau.xlsx
+++ b/server/templates/form_mau.xlsx
@@ -3,47 +3,55 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA362974-C99A-4A36-BDC0-819DDF7F983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3316971C-E04C-4954-A448-9539FDCC00BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BẢNG KÊ" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase">'BẢNG KÊ'!$A$10:$Q$22</definedName>
+    <definedName name="_xlnm._FilterDatabase">'BẢNG KÊ'!$A$10:$Q$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'BẢNG KÊ'!$A1:$P29</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ MINH QUÂN</t>
   </si>
   <si>
-    <t>Địa chỉ: Thôn Lương, xã Vĩnh Khúc, huyện Văn Giang, tỉnh Hưng Yên</t>
-  </si>
-  <si>
     <t>Mã số thuế : 0900268578</t>
   </si>
   <si>
-    <t>BẢNG KÊ CHI TIẾT CƯỚC VẬN CHUYỂN HÀNG HÓA</t>
-  </si>
-  <si>
     <t>Tên khách hàng:</t>
   </si>
   <si>
@@ -66,12 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">NGÀY THÁNG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ĐIỂM XẾP HÀNG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ĐIỂM GIỠ HÀNG </t>
   </si>
   <si>
     <t>SỐ ĐIỂM</t>
@@ -90,9 +92,6 @@
     <t>THÊM ĐIỂM</t>
   </si>
   <si>
-    <t>CHI PHÍ PHÁT SINH (NẾU CÓ)</t>
-  </si>
-  <si>
     <t>THÀNH TIỀN</t>
   </si>
   <si>
@@ -102,9 +101,6 @@
     <t>MÃ CHUYẾN</t>
   </si>
   <si>
-    <t>BỐP XẾP</t>
-  </si>
-  <si>
     <t>VÉ</t>
   </si>
   <si>
@@ -117,25 +113,34 @@
     <t>CP KHÁC</t>
   </si>
   <si>
-    <t>Cộng tiền hàng</t>
-  </si>
-  <si>
-    <t>Thuế suất GTGT 8%   Tiền thuế GTGT</t>
-  </si>
-  <si>
     <t>Tổng cộng tiền thanh toán</t>
   </si>
   <si>
-    <t xml:space="preserve"> CÔNG TY TNHH SỢI VĨ SƠN</t>
-  </si>
-  <si>
-    <t>( Ký tên, đóng dấu )</t>
-  </si>
-  <si>
-    <t>( Ký tên, đóng dấu)</t>
-  </si>
-  <si>
-    <t>Thành tiền (bằng chữ):</t>
+    <t>Địa chỉ: Thôn Lương, Xã Nghĩa Trụ, Tỉnh Hưng Yên, Việt Nam</t>
+  </si>
+  <si>
+    <t>ĐIỂM BỐC HÀNG</t>
+  </si>
+  <si>
+    <t>ĐIỂM GIAO HÀNG</t>
+  </si>
+  <si>
+    <t>(Ký tên, đóng dấu)</t>
+  </si>
+  <si>
+    <t>Thuế suất GTGT: 8% Tiền thuế GTGT</t>
+  </si>
+  <si>
+    <t>BỐC XẾP</t>
+  </si>
+  <si>
+    <t>BẢNG KÊ CHI TIẾT CƯỚC VẬN CHUYỂN HÀNG HÓA</t>
+  </si>
+  <si>
+    <t>Tổng tiền (bằng chữ):</t>
+  </si>
+  <si>
+    <t>Tổng cước vận chuyển</t>
   </si>
 </sst>
 </file>
@@ -146,13 +151,90 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="11"/>
@@ -163,84 +245,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="16"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -253,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -276,46 +289,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,9 +392,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -341,52 +407,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -395,31 +446,58 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,13 +522,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>155576</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>69851</xdr:rowOff>
+      <xdr:rowOff>25027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1161428</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>239184</xdr:rowOff>
+      <xdr:rowOff>194360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -473,8 +551,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="155576" y="25027"/>
+          <a:ext cx="1364440" cy="752039"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -484,6 +562,24 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Doiso"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="vnd"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,10 +882,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,8 +896,8 @@
     <col min="5" max="5" width="7.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
     <col min="11" max="14" width="10.28515625" style="1" customWidth="1"/>
     <col min="15" max="15" width="13" style="1" customWidth="1"/>
@@ -814,7 +910,7 @@
     <row r="1" spans="1:17" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4"/>
@@ -822,166 +918,166 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -991,269 +1087,255 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="F10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="G10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="H10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="I10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="J10" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="P10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="Q10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="24"/>
     </row>
     <row r="12" spans="1:17" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
-        <v>1</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="22"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="24"/>
     </row>
     <row r="13" spans="1:17" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>2</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="22"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>3</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="22"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="24"/>
     </row>
     <row r="15" spans="1:17" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>4</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="22"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="24"/>
     </row>
     <row r="16" spans="1:17" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
-        <v>5</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
       <c r="P16" s="24"/>
-      <c r="Q16" s="22"/>
+      <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="1:17" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>6</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-    </row>
-    <row r="18" spans="1:17" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
-        <v>7</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+    </row>
+    <row r="18" spans="1:17" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
     </row>
     <row r="19" spans="1:17" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
+      <c r="A19" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="50"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
     </row>
     <row r="20" spans="1:17" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="48"/>
+      <c r="A20" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="48"/>
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
@@ -1261,134 +1343,111 @@
       <c r="L20" s="48"/>
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
+      <c r="O20" s="50"/>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
     </row>
-    <row r="21" spans="1:17" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+    <row r="21" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-    </row>
-    <row r="22" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="41" t="e" cm="1">
+        <f t="array" aca="1" ref="C21" ca="1">[1]!vnd(O20)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+    </row>
+    <row r="22" spans="1:17" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-    </row>
-    <row r="23" spans="1:17" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
+    </row>
+    <row r="23" spans="1:17" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="34"/>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-    </row>
-    <row r="24" spans="1:17" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="32"/>
-    </row>
-    <row r="25" spans="1:17" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="28"/>
-    </row>
-    <row r="26" spans="1:17" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="27"/>
+    </row>
+    <row r="24" spans="1:17" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
@@ -1410,6 +1469,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
+      <c r="P34" s="1"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
@@ -1417,6 +1477,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
+      <c r="P35" s="1"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
@@ -1482,45 +1543,13 @@
       <c r="G43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A10:Q22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="20">
-    <mergeCell ref="A25:D25"/>
+  <autoFilter ref="A10:Q21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="4">
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:O21"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
